--- a/data_input/maunal/CRR_2565.xlsx
+++ b/data_input/maunal/CRR_2565.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\maunal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\maunal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EE32FD-E1FC-497E-8CE0-B716D4A92F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86646984-B48D-4E3E-82EF-4F030C74795A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="5" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="5" activeTab="10" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -7754,7 +7754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E13A5BC-81A9-424F-8AF7-7859F2334B8B}">
   <dimension ref="A1:BD200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -45639,7 +45639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F6DBC-97BA-4B0E-8A07-45C48EA2E8C7}">
   <dimension ref="A1:BD262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
